--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B628D16-B2F4-4249-9889-30CB645B818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -12,22 +13,31 @@
     <sheet name="F01.BVA" sheetId="3" r:id="rId3"/>
     <sheet name="BBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -139,9 +149,6 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
     <t>Tehnicile ECP si BVA sunt exemplificate pentru problema de mai jos. Studentii vor aplica aceeasi modalitate de lucru pentru proiectul primit in Lab01.</t>
   </si>
   <si>
@@ -154,41 +161,10 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -319,42 +295,9 @@
     <t>output data</t>
   </si>
   <si>
-    <t>titlu</t>
-  </si>
-  <si>
-    <t>regizor</t>
-  </si>
-  <si>
-    <t>an aparitie</t>
-  </si>
-  <si>
-    <t>actori</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>cuvinte cheie</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>"Movie Title"</t>
-  </si>
-  <si>
-    <t>Actor1, Actor2</t>
-  </si>
-  <si>
-    <t>keyword1, keyword2</t>
-  </si>
-  <si>
-    <t>2,3,2</t>
-  </si>
-  <si>
-    <t>record added</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -364,18 +307,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>201q</t>
-  </si>
-  <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -403,18 +334,6 @@
     <t>expected result</t>
   </si>
   <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>"M…123"</t>
-  </si>
-  <si>
-    <t>"M…12"</t>
-  </si>
-  <si>
     <t>BBT TCs</t>
   </si>
   <si>
@@ -436,28 +355,10 @@
     <t>F01</t>
   </si>
   <si>
-    <t>TC1_ECP</t>
-  </si>
-  <si>
-    <t>Director1, Director2</t>
-  </si>
-  <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
-    <t>Error message-Empty movie title</t>
-  </si>
-  <si>
-    <t>TC5_ECP</t>
-  </si>
-  <si>
     <t>TC3_BVA</t>
   </si>
   <si>
     <t>TC4_BVA</t>
-  </si>
-  <si>
-    <t>TC5_BVA</t>
   </si>
   <si>
     <t>Statistics</t>
@@ -524,9 +425,6 @@
   </si>
   <si>
     <t>Zotica Ștefan-Lucian</t>
-  </si>
-  <si>
-    <t>Szabo Zoltan-Vasile</t>
   </si>
   <si>
     <r>
@@ -748,15 +646,84 @@
   <si>
     <t>2023-10-20</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Start Date &amp; Time</t>
+  </si>
+  <si>
+    <t>End Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Repetition Interval</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>"Meeting with Team"</t>
+  </si>
+  <si>
+    <t>0 hours 30 minutes</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>"Important Presentation"2024-04-05 14:00</t>
+  </si>
+  <si>
+    <t>2 hours 0 minutes</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>task created</t>
+  </si>
+  <si>
+    <t>"Daily Standup"</t>
+  </si>
+  <si>
+    <t>1 hours 0 minutes</t>
+  </si>
+  <si>
+    <t>"Review Meeting"</t>
+  </si>
+  <si>
+    <t>2024-04-69 25:89</t>
+  </si>
+  <si>
+    <t>0 hours 45 minutes</t>
+  </si>
+  <si>
+    <t>1. Evidenţa task-urilor</t>
+  </si>
+  <si>
+    <t>Aplicatia gestioneaza task-urile unei persoane active. Informatiile sunt preluate dintr-un fisier binar sau text in formatul titlu, data si ora de inceput, data si ora de sfarsit daca . Functionalitatile aplicatiei sunt:</t>
+  </si>
+  <si>
+    <t>F01. Adaugarea unui task nou cu detaliile: titlu, data si ora de inceput, data si ora de sfarsit. Daca task-ul este repetitiv, atunci se indica intervalul de timp la care se va repeta, dat ca numar de ore si minute. Task-ul poate fi activ sau nu.</t>
+  </si>
+  <si>
+    <t>public Date getDateMergedWithTime(String time, Date noTimeDate)</t>
+  </si>
+  <si>
+    <t>private Task makeTask()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,15 +816,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1032,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1619,12 +1577,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1637,25 +1639,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,8 +1690,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,23 +1701,91 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,50 +1800,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1797,17 +1869,98 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1815,8 +1968,80 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1827,19 +2052,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1857,260 +2076,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2205,6 +2212,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2240,6 +2264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2415,19 +2456,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="32.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
@@ -2435,24 +2477,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -2468,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -2479,43 +2521,37 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="2">
-        <v>236</v>
-      </c>
+      <c r="B6" s="28"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>8</v>
+      <c r="B8" s="38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2532,7 +2568,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2540,15 +2576,15 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="180" t="s">
+        <v>150</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2560,45 +2596,34 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>15</v>
+      <c r="B18" s="38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="37" t="s">
-        <v>17</v>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
+      <c r="C21" s="36" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2613,30 +2638,47 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="40"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B25:N25"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
@@ -2646,14 +2688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:O14"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,452 +2718,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="B3" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="G5" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="G5" s="67" t="s">
+      <c r="G6" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="H6" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="I6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="57"/>
+      <c r="Q6" s="117"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>95</v>
+      <c r="C7" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="54"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="132">
+      <c r="E8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="49">
         <v>1</v>
       </c>
-      <c r="H8" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="152" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="152" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="144" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="144"/>
+      <c r="H8" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="132">
+      <c r="E9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="49">
         <v>2</v>
       </c>
-      <c r="H9" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="146"/>
+      <c r="H9" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="114"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="133">
+      <c r="E10" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="50">
         <v>3</v>
       </c>
-      <c r="H10" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="149" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="147"/>
+      <c r="H10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="133">
+      <c r="E11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="50">
         <v>4</v>
       </c>
-      <c r="H11" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="123"/>
+      <c r="H11" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="104"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="122" t="s">
-        <v>102</v>
+      <c r="C12" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="G12" s="133">
+      <c r="G12" s="50">
         <v>5</v>
       </c>
-      <c r="H12" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="123"/>
+      <c r="H12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="104"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="134">
+      <c r="E13" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="51">
         <v>6</v>
       </c>
-      <c r="H13" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="141" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
+      <c r="H13" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="120"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="88"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="117"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="88"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="117"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="88"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="117"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="88"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="117"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="88"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="117"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="88"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="117"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
+      <c r="G21" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:O8"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
@@ -3137,6 +3143,42 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3144,13 +3186,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -3171,598 +3213,584 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="B3" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="G5" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="G6" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="73"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="130"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61">
+      <c r="B7" s="96">
         <v>1</v>
       </c>
-      <c r="C7" s="159" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="18" t="s">
+      <c r="C7" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="102"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="97"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="62">
+        <v>1</v>
+      </c>
+      <c r="H8" s="60">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M8" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="136"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="98"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="62">
+        <v>2</v>
+      </c>
+      <c r="H9" s="60">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M9" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="134"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="96">
+        <v>2</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="62">
+        <v>3</v>
+      </c>
+      <c r="H10" s="60">
+        <v>3</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M10" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="134"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="97"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="62">
+        <v>4</v>
+      </c>
+      <c r="H11" s="60">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M11" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="134"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="98"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="62">
+        <v>5</v>
+      </c>
+      <c r="H12" s="60">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M12" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="134"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="96">
+        <v>3</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="62">
+        <v>6</v>
+      </c>
+      <c r="H13" s="60">
+        <v>6</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M13" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="134"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="97"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="62">
+        <v>7</v>
+      </c>
+      <c r="H14" s="60">
+        <v>7</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M14" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="134"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="98"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="62">
+        <v>8</v>
+      </c>
+      <c r="H15" s="60">
+        <v>8</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M15" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="134"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="96">
+        <v>4</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="62">
+        <v>9</v>
+      </c>
+      <c r="H16" s="60">
+        <v>9</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M16" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="134"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="97"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="62">
+        <v>10</v>
+      </c>
+      <c r="H17" s="60">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M17" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="134"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="98"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="62">
+        <v>11</v>
+      </c>
+      <c r="H18" s="60">
+        <v>11</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M18" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="134"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="96">
+        <v>5</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="62">
+        <v>12</v>
+      </c>
+      <c r="H19" s="60">
+        <v>12</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="66">
+        <v>45371</v>
+      </c>
+      <c r="M19" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="138"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="98"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="63">
+        <v>13</v>
+      </c>
+      <c r="H20" s="65">
+        <v>14</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="60"/>
+      <c r="L20" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="17">
+        <v>14</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="17">
+        <v>15</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="17">
+        <v>16</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="17">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="17">
+        <v>18</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="46"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="46"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="46"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="54"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="166">
-        <v>1</v>
-      </c>
-      <c r="H8" s="164">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="164" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M8" s="174" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" s="175"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="166">
-        <v>2</v>
-      </c>
-      <c r="H9" s="164">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="164" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M9" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="171"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="61">
-        <v>2</v>
-      </c>
-      <c r="C10" s="159" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="166">
-        <v>3</v>
-      </c>
-      <c r="H10" s="164">
-        <v>3</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="164" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M10" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="171"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="166">
-        <v>4</v>
-      </c>
-      <c r="H11" s="164">
-        <v>4</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="164" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M11" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="171"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="162" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="166">
-        <v>5</v>
-      </c>
-      <c r="H12" s="164">
-        <v>5</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="164" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M12" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" s="171"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="61">
-        <v>3</v>
-      </c>
-      <c r="C13" s="159" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="166">
-        <v>6</v>
-      </c>
-      <c r="H13" s="164">
-        <v>6</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="164" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M13" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="171"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="166">
-        <v>7</v>
-      </c>
-      <c r="H14" s="164">
-        <v>7</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="164" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M14" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" s="171"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="166">
-        <v>8</v>
-      </c>
-      <c r="H15" s="164">
-        <v>8</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="164" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M15" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="171"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="61">
-        <v>4</v>
-      </c>
-      <c r="C16" s="159" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="162" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="166">
-        <v>9</v>
-      </c>
-      <c r="H16" s="164">
-        <v>9</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M16" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="171"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="166">
-        <v>10</v>
-      </c>
-      <c r="H17" s="164">
-        <v>10</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="164" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M17" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="171"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="166">
-        <v>11</v>
-      </c>
-      <c r="H18" s="164">
-        <v>11</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M18" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="171"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="61">
-        <v>5</v>
-      </c>
-      <c r="C19" s="161" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="166">
-        <v>12</v>
-      </c>
-      <c r="H19" s="164">
-        <v>12</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="164" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="176">
-        <v>45371</v>
-      </c>
-      <c r="M19" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="173"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="165" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="167">
-        <v>13</v>
-      </c>
-      <c r="H20" s="169">
-        <v>14</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="168" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="164"/>
-      <c r="L20" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="71"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="119"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="18">
-        <v>14</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="71"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="119"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="18">
-        <v>15</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="18">
-        <v>16</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="71"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="120"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="18">
-        <v>17</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="118"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="18">
-        <v>18</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="71"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="119"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="119"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="2"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="119"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="120"/>
-      <c r="C30" s="158"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
@@ -3772,16 +3800,30 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3790,22 +3832,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -3813,577 +3855,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
+      <c r="B3" s="144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="B4" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="117"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="147"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="174" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="168" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="169"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="57"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="F6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="175">
+        <v>45387.375</v>
+      </c>
+      <c r="H6" s="175">
+        <v>45387.458333333336</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="176" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="24">
-        <v>2010</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>44</v>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2010</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>44</v>
+      <c r="C7" s="146"/>
+      <c r="D7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="175">
+        <v>45387.5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>46</v>
+      <c r="C8" s="146"/>
+      <c r="D8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J8" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
       <c r="M8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="114"/>
-      <c r="M9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>44</v>
+      <c r="C9" s="146"/>
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="171" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2010</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>44</v>
+      <c r="C10" s="146"/>
+      <c r="D10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="175">
+        <v>45387.375</v>
+      </c>
+      <c r="H10" s="175">
+        <v>45387.416666666664</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="107"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="175">
+        <v>45387.583333333336</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
       <c r="M11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>44</v>
+        <v>141</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2010</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="82"/>
+      <c r="C17" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="156" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="159"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="159"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="158"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="78" t="s">
-        <v>86</v>
+      <c r="B18" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="154" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="155" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="164" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="161"/>
+      <c r="J18" s="154" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="165" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="154" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="155" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="155"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="30">
-        <v>8</v>
-      </c>
-      <c r="D20" s="32">
-        <v>5</v>
-      </c>
-      <c r="E20" s="32">
-        <v>3</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20" s="32">
-        <v>3</v>
-      </c>
-      <c r="L20" s="33">
-        <v>0</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
-      <c r="O20" s="32">
-        <v>5</v>
-      </c>
-      <c r="P20" s="33">
-        <v>0</v>
-      </c>
+      <c r="B20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="29">
+        <v>4</v>
+      </c>
+      <c r="D20" s="31">
+        <v>2</v>
+      </c>
+      <c r="E20" s="31">
+        <v>2</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="150" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="151"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+  <mergeCells count="37">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H20:I20"/>
@@ -4398,12 +4364,13 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4412,21 +4379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4570,24 +4522,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4603,4 +4553,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B628D16-B2F4-4249-9889-30CB645B818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="F01.BVA" sheetId="3" r:id="rId3"/>
     <sheet name="BBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="M16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -167,104 +166,12 @@
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
     <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
   </si>
   <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
-  </si>
-  <si>
     <t>EC Identification</t>
   </si>
   <si>
@@ -299,9 +206,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>-</t>
@@ -647,60 +551,12 @@
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Start Date &amp; Time</t>
-  </si>
-  <si>
-    <t>End Date &amp; Time</t>
-  </si>
-  <si>
-    <t>Repetition Interval</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>"Meeting with Team"</t>
-  </si>
-  <si>
-    <t>0 hours 30 minutes</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>"Important Presentation"2024-04-05 14:00</t>
-  </si>
-  <si>
-    <t>2 hours 0 minutes</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>task created</t>
-  </si>
-  <si>
-    <t>"Daily Standup"</t>
-  </si>
-  <si>
-    <t>1 hours 0 minutes</t>
-  </si>
-  <si>
-    <t>"Review Meeting"</t>
-  </si>
-  <si>
-    <t>2024-04-69 25:89</t>
-  </si>
-  <si>
-    <t>0 hours 45 minutes</t>
-  </si>
-  <si>
     <t>1. Evidenţa task-urilor</t>
   </si>
   <si>
@@ -713,17 +569,41 @@
     <t>public Date getDateMergedWithTime(String time, Date noTimeDate)</t>
   </si>
   <si>
-    <t>private Task makeTask()</t>
+    <t xml:space="preserve"> 2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>date (success)</t>
+  </si>
+  <si>
+    <t>"12:43"</t>
+  </si>
+  <si>
+    <t>"-13:12"</t>
+  </si>
+  <si>
+    <t>2. Metoda este definită la nivelul service.</t>
+  </si>
+  <si>
+    <t>noDateTime</t>
+  </si>
+  <si>
+    <t>time e string -&gt; [0-23]:[0-59]</t>
+  </si>
+  <si>
+    <t>noDateTime e Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,21 +648,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -799,15 +664,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -990,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1578,31 +1434,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1624,11 +1460,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1636,64 +1472,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1701,126 +1536,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1839,13 +1655,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1857,16 +1673,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1878,28 +1694,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1917,40 +1760,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,165 +1796,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2212,23 +2036,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2264,23 +2071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2456,14 +2246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,24 +2267,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-      <c r="H1" s="40" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -2510,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -2521,21 +2311,21 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
+      <c r="B6" s="27"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2568,7 +2358,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2576,15 +2366,15 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="180" t="s">
-        <v>150</v>
+      <c r="B16" s="68" t="s">
+        <v>131</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2596,7 +2386,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2606,24 +2396,38 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>152</v>
+      <c r="C20" s="35" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="36" t="s">
-        <v>151</v>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>14</v>
+      <c r="B23" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2640,7 +2444,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2656,25 +2460,30 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="176" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="39"/>
+      <c r="C27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2688,14 +2497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,410 +2527,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="B3" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="G5" s="93" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="G6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="H6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="I6" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="117"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>64</v>
+      <c r="C7" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="102"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="49">
+      <c r="E8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="47">
         <v>1</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="112"/>
+      <c r="H8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="49">
+      <c r="E9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="47">
         <v>2</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="114"/>
+      <c r="H9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="116"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="50">
+      <c r="E10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="48">
         <v>3</v>
       </c>
-      <c r="H10" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="103"/>
+      <c r="H10" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="50">
+      <c r="E11" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="48">
         <v>4</v>
       </c>
-      <c r="H11" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="104"/>
+      <c r="H11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="101"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="48">
+        <v>5</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="50">
-        <v>5</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="104"/>
+      <c r="Q12" s="101"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="51">
+      <c r="E13" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="49">
         <v>6</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="H13" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="47"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="88"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="88"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="82"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="121"/>
       <c r="J16" s="122"/>
       <c r="K16" s="123"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="88"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="82"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="44"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="88"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="88"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="82"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="44"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="88"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="82"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="120"/>
       <c r="G22" s="120"/>
@@ -3143,6 +2952,7 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="L10:O10"/>
@@ -3150,11 +2960,7 @@
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="L13:O13"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="L14:O14"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H6:H7"/>
@@ -3166,19 +2972,22 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="C7:C11"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3186,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -3213,580 +3022,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="B3" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
+      <c r="G5" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="G6" s="94" t="s">
+      <c r="J6" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="K6" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="131"/>
+      <c r="M6" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="131"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="90">
+        <v>1</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="130"/>
-      <c r="M6" s="129" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="130"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96">
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="91"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="H8" s="58">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M8" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="137"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="92"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="60">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M9" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="135"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="90">
+        <v>2</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="102"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="58" t="s">
+      <c r="G10" s="60">
+        <v>3</v>
+      </c>
+      <c r="H10" s="58">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M10" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="135"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="91"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="62">
-        <v>1</v>
-      </c>
-      <c r="H8" s="60">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="61" t="s">
+      <c r="G11" s="60">
+        <v>4</v>
+      </c>
+      <c r="H11" s="58">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M11" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="135"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="60">
+        <v>5</v>
+      </c>
+      <c r="H12" s="58">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M12" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="135"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="90">
+        <v>3</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="60">
+        <v>6</v>
+      </c>
+      <c r="H13" s="58">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M13" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="135"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="60">
+        <v>7</v>
+      </c>
+      <c r="H14" s="58">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M14" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="135"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="60">
+        <v>8</v>
+      </c>
+      <c r="H15" s="58">
+        <v>8</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M15" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="135"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="90">
+        <v>4</v>
+      </c>
+      <c r="C16" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="60">
+        <v>9</v>
+      </c>
+      <c r="H16" s="58">
+        <v>9</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M16" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="135"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="60">
+        <v>10</v>
+      </c>
+      <c r="H17" s="58">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M17" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="135"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="60">
+        <v>11</v>
+      </c>
+      <c r="H18" s="58">
+        <v>11</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M18" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="135"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="90">
+        <v>5</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="60">
+        <v>12</v>
+      </c>
+      <c r="H19" s="58">
+        <v>12</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="64">
+        <v>45371</v>
+      </c>
+      <c r="M19" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M8" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="136"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="62">
-        <v>2</v>
-      </c>
-      <c r="H9" s="60">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M9" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="134"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="96">
-        <v>2</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="62">
-        <v>3</v>
-      </c>
-      <c r="H10" s="60">
-        <v>3</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M10" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="134"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="62">
-        <v>4</v>
-      </c>
-      <c r="H11" s="60">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M11" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="134"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="98"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="62">
-        <v>5</v>
-      </c>
-      <c r="H12" s="60">
-        <v>5</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M12" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="134"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="96">
-        <v>3</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="62">
-        <v>6</v>
-      </c>
-      <c r="H13" s="60">
-        <v>6</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M13" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="134"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="62">
-        <v>7</v>
-      </c>
-      <c r="H14" s="60">
-        <v>7</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M14" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="134"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="62">
-        <v>8</v>
-      </c>
-      <c r="H15" s="60">
-        <v>8</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M15" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="134"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="96">
-        <v>4</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="58" t="s">
+      <c r="N19" s="139"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="62">
-        <v>9</v>
-      </c>
-      <c r="H16" s="60">
-        <v>9</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M16" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="134"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="62">
-        <v>10</v>
-      </c>
-      <c r="H17" s="60">
-        <v>10</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M17" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="134"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="62">
-        <v>11</v>
-      </c>
-      <c r="H18" s="60">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M18" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="134"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="96">
-        <v>5</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="62">
-        <v>12</v>
-      </c>
-      <c r="H19" s="60">
-        <v>12</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="66">
-        <v>45371</v>
-      </c>
-      <c r="M19" s="137" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="138"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="63">
+      <c r="G20" s="61">
         <v>13</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="63">
         <v>14</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="2"/>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>14</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="132"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="2"/>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>15</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="2"/>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>16</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="2"/>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>17</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="2"/>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>18</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="132"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="2"/>
       <c r="G28" s="120"/>
       <c r="H28" s="120"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="56"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="2"/>
-      <c r="G29" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
+      <c r="G29" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
@@ -3800,6 +3604,9 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3812,12 +3619,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="G29:K29"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -3832,14 +3641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,530 +3656,434 @@
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="56.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="94" t="s">
+      <c r="E4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="F4" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="107"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="148"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="145"/>
+      <c r="H5" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="148" t="s">
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="117" t="s">
+      <c r="D6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="79"/>
+      <c r="H6" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="117"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="147"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="174" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="168" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="169"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="175">
-        <v>45387.375</v>
-      </c>
-      <c r="H6" s="175">
-        <v>45387.458333333336</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="175">
-        <v>45387.5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <f t="shared" ref="B8:B13" si="0">B7+1</f>
+      <c r="C7" s="167"/>
+      <c r="D7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="79"/>
+      <c r="H7" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="67">
+        <f t="shared" ref="B8:B9" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="170" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="C8" s="167"/>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="171" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C9" s="167"/>
+      <c r="D9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="175">
-        <v>45387.375</v>
-      </c>
-      <c r="H10" s="175">
-        <v>45387.416666666664</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="175">
-        <v>45387.583333333336</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="H15" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="156" t="s">
+      <c r="I15" s="160"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="30" t="s">
+      <c r="N15" s="160"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
+    </row>
+    <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="156" t="s">
+      <c r="D16" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="159"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="156" t="s">
+      <c r="E16" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="159"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="153" t="s">
+      <c r="F16" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="154" t="s">
+      <c r="G16" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="H16" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="155" t="s">
+      <c r="I16" s="162"/>
+      <c r="J16" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="156"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="28">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="160" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="161"/>
-      <c r="J18" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="154" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="165" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="154" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="154" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="155" t="s">
-        <v>56</v>
-      </c>
+      <c r="I18" s="152"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="155"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="29">
-        <v>4</v>
-      </c>
-      <c r="D20" s="31">
-        <v>2</v>
-      </c>
-      <c r="E20" s="31">
-        <v>2</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="151"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M21" s="3"/>
+      <c r="M19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>expected</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>-</t>
@@ -320,9 +317,6 @@
   </si>
   <si>
     <t>Re-tested</t>
-  </si>
-  <si>
-    <t>not yet</t>
   </si>
   <si>
     <t>Soare Cristian-Constantin</t>
@@ -353,24 +347,6 @@
     </r>
   </si>
   <si>
-    <t>time is String</t>
-  </si>
-  <si>
-    <t>"[0-23]:[0-59]"</t>
-  </si>
-  <si>
-    <t>"[&lt;0]:[0-59]"</t>
-  </si>
-  <si>
-    <t>"[&gt;23]:[0-59]"</t>
-  </si>
-  <si>
-    <t>"[0-23]:[&lt;0]"</t>
-  </si>
-  <si>
-    <t>"[0-23]:[&gt;59]"</t>
-  </si>
-  <si>
     <t>noTimeDate is Date</t>
   </si>
   <si>
@@ -410,9 +386,6 @@
     <t>5,6...</t>
   </si>
   <si>
-    <t>1,7,...</t>
-  </si>
-  <si>
     <t>TC6 can't be implemented</t>
   </si>
   <si>
@@ -431,9 +404,6 @@
     <t>13:89</t>
   </si>
   <si>
-    <t>noTimeDate= valid</t>
-  </si>
-  <si>
     <t>7. min = 00</t>
   </si>
   <si>
@@ -446,15 +416,9 @@
     <t>10. min = 59</t>
   </si>
   <si>
-    <t>11. min = 58</t>
-  </si>
-  <si>
     <t>12. min = 60</t>
   </si>
   <si>
-    <t>14. noTimeDate = null</t>
-  </si>
-  <si>
     <t>time &gt;=0:mm</t>
   </si>
   <si>
@@ -479,24 +443,12 @@
     <t>5. time = 24</t>
   </si>
   <si>
-    <t>6. time = 22</t>
-  </si>
-  <si>
     <t>time &lt;HH:60</t>
   </si>
   <si>
-    <t>TC13 nu se poate obtine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. noTimeDate valid </t>
-  </si>
-  <si>
     <t> yes</t>
   </si>
   <si>
-    <t> no</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -518,18 +470,12 @@
     <t>"24:12"</t>
   </si>
   <si>
-    <t>"22:00"</t>
-  </si>
-  <si>
     <t>"13:-01"</t>
   </si>
   <si>
     <t>"12:01"</t>
   </si>
   <si>
-    <t>"13:58"</t>
-  </si>
-  <si>
     <t>"13:60"</t>
   </si>
   <si>
@@ -548,9 +494,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
@@ -594,6 +537,33 @@
   </si>
   <si>
     <t>noDateTime e Date</t>
+  </si>
+  <si>
+    <t>0&lt;=h&lt;=23</t>
+  </si>
+  <si>
+    <t>0&lt;=m&lt;=59</t>
+  </si>
+  <si>
+    <t>m &lt; 0</t>
+  </si>
+  <si>
+    <t>59 &lt; m</t>
+  </si>
+  <si>
+    <t>23 &lt; h</t>
+  </si>
+  <si>
+    <t>h &lt; 0</t>
+  </si>
+  <si>
+    <t>1,8,...</t>
+  </si>
+  <si>
+    <t>nu a aruncat exceptie</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -846,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1457,12 +1427,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1622,6 +1605,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1637,6 +1643,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1646,22 +1751,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1694,100 +1787,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1796,44 +1829,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1853,95 +1946,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2252,8 +2259,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,12 +2274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
@@ -2280,11 +2287,11 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -2300,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -2311,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
@@ -2358,7 +2365,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2366,7 +2373,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2374,7 +2381,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="68" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2397,12 +2404,12 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="35" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,11 +2430,11 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="175" t="s">
-        <v>74</v>
+      <c r="B23" s="76" t="s">
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2461,25 +2468,25 @@
     </row>
     <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
-      <c r="B25" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
+      <c r="B25" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="176" t="s">
-        <v>141</v>
+      <c r="B26" s="77" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2501,10 +2508,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Q22"/>
+  <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showFormulas="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,43 +2534,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="G5" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -2578,274 +2585,280 @@
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="107" t="s">
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="107"/>
+      <c r="Q6" s="111"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>61</v>
+      <c r="C7" s="128" t="s">
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="97" t="s">
+      <c r="G7" s="127"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="113"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="99"/>
+      <c r="Q7" s="114"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="4"/>
       <c r="E8" s="41" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="G8" s="47">
         <v>1</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="104"/>
+        <v>67</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="108"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="4"/>
       <c r="E9" s="41" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="G9" s="47">
         <v>2</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="116"/>
+        <v>68</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="C10" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="41"/>
       <c r="G10" s="48">
         <v>3</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="100"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="132"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="4"/>
       <c r="E11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="48">
-        <v>4</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="101"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="G12" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="101"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="133"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="49">
+      <c r="C13" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="48">
+        <v>5</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="133"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="131"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="49">
         <v>6</v>
       </c>
-      <c r="H13" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="82"/>
+      <c r="H14" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="14"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="82"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="87"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
@@ -2854,15 +2867,15 @@
       <c r="E16" s="4"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="123"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="87"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="82"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="87"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -2871,15 +2884,15 @@
       <c r="E17" s="4"/>
       <c r="G17" s="14"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="82"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="87"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
@@ -2888,106 +2901,124 @@
       <c r="E18" s="4"/>
       <c r="G18" s="14"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="82"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="87"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="42"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="82"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="87"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="42"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
+  <mergeCells count="52">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3002,7 +3033,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,103 +3053,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="I6" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="J6" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="K6" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="142"/>
+      <c r="M6" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="142"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="128">
+        <v>1</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="131"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90">
-        <v>1</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="99"/>
+      <c r="N7" s="114"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G8" s="60">
         <v>1</v>
@@ -3128,24 +3159,24 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L8" s="64">
         <v>45371</v>
       </c>
-      <c r="M8" s="136" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="137"/>
+      <c r="M8" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="146"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="56" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G9" s="60">
         <v>2</v>
@@ -3155,28 +3186,28 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L9" s="64">
         <v>45371</v>
       </c>
       <c r="M9" s="134" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N9" s="135"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="90">
+      <c r="B10" s="128">
         <v>2</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>96</v>
+      <c r="C10" s="143" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G10" s="60">
         <v>3</v>
@@ -3186,24 +3217,24 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L10" s="64">
         <v>45371</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N10" s="135"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="56" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G11" s="60">
         <v>4</v>
@@ -3213,25 +3244,23 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="L11" s="64">
         <v>45371</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N11" s="135"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="92"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="56" t="s">
-        <v>103</v>
-      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="56"/>
       <c r="G12" s="60">
         <v>5</v>
       </c>
@@ -3240,55 +3269,43 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L12" s="64">
         <v>45371</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N12" s="135"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="90">
+      <c r="B13" s="128">
         <v>3</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>97</v>
+      <c r="C13" s="143" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="60">
-        <v>6</v>
-      </c>
-      <c r="H13" s="58">
-        <v>6</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="64">
-        <v>45371</v>
-      </c>
-      <c r="M13" s="134" t="s">
-        <v>109</v>
-      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="134"/>
       <c r="N13" s="135"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="56" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G14" s="60">
         <v>7</v>
@@ -3298,24 +3315,24 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L14" s="64">
         <v>45371</v>
       </c>
       <c r="M14" s="134" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N14" s="135"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="56" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15" s="60">
         <v>8</v>
@@ -3325,28 +3342,28 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L15" s="64">
         <v>45371</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N15" s="135"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="90">
+      <c r="B16" s="128">
         <v>4</v>
       </c>
-      <c r="C16" s="125" t="s">
-        <v>104</v>
+      <c r="C16" s="143" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G16" s="60">
         <v>9</v>
@@ -3356,25 +3373,23 @@
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L16" s="64">
         <v>45371</v>
       </c>
       <c r="M16" s="134" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N16" s="135"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="56" t="s">
-        <v>92</v>
-      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="56"/>
       <c r="G17" s="60">
         <v>10</v>
       </c>
@@ -3383,56 +3398,38 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K17" s="58" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="L17" s="64">
         <v>45371</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="126"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="60">
-        <v>11</v>
-      </c>
-      <c r="H18" s="58">
-        <v>11</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="64">
-        <v>45371</v>
-      </c>
-      <c r="M18" s="134" t="s">
-        <v>109</v>
-      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="135"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90">
-        <v>5</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>106</v>
-      </c>
+      <c r="B19" s="128"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="59"/>
       <c r="G19" s="60">
         <v>12</v>
       </c>
@@ -3441,41 +3438,31 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K19" s="58" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L19" s="64">
         <v>45371</v>
       </c>
       <c r="M19" s="138" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="92"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="61">
-        <v>13</v>
-      </c>
-      <c r="H20" s="63">
-        <v>14</v>
-      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="62" t="s">
-        <v>108</v>
-      </c>
+      <c r="J20" s="62"/>
       <c r="K20" s="58"/>
-      <c r="L20" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
@@ -3489,8 +3476,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
@@ -3504,8 +3491,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
@@ -3519,8 +3506,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="45"/>
@@ -3534,8 +3521,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
@@ -3549,8 +3536,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
@@ -3566,23 +3553,21 @@
       <c r="B28" s="44"/>
       <c r="C28" s="54"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="44"/>
       <c r="C29" s="54"/>
       <c r="D29" s="2"/>
-      <c r="G29" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
@@ -3591,6 +3576,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
@@ -3607,32 +3618,6 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3647,8 +3632,8 @@
   </sheetPr>
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,113 +3646,113 @@
     <col min="11" max="11" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="56.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="C4" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="D4" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="E4" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="107" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="107"/>
+      <c r="N4" s="111"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="148"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="183"/>
+      <c r="H5" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="166" t="s">
-        <v>43</v>
+      <c r="C6" s="174" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="85"/>
+      <c r="H6" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -3775,29 +3760,29 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="167"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="24" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -3805,29 +3790,29 @@
         <f t="shared" ref="B8:B9" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="167"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -3835,58 +3820,58 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="167"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
+        <v>44</v>
+      </c>
+      <c r="F9" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="167"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="24"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
       <c r="M10" s="5"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
-      <c r="C11" s="168"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="25"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="174"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
@@ -3907,7 +3892,7 @@
     </row>
     <row r="13" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -3917,102 +3902,102 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="29" t="s">
+      <c r="H15" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="I15" s="156"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="157" t="s">
+      <c r="N15" s="156"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="158"/>
+    </row>
+    <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="154" t="s">
+      <c r="D16" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="E16" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="F16" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="156" t="s">
+      <c r="G16" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="165" t="s">
+      <c r="H16" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="162"/>
-      <c r="J16" s="155" t="s">
+      <c r="I16" s="170"/>
+      <c r="J16" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="155" t="s">
+      <c r="L16" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="155" t="s">
+      <c r="M16" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="155" t="s">
+      <c r="P16" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="156" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="156"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="153"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="28">
         <v>4</v>
@@ -4023,38 +4008,55 @@
       <c r="E18" s="30">
         <v>2</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="151" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
+      <c r="F18" s="31">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="166"/>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="30">
+        <v>2</v>
+      </c>
+      <c r="L18" s="31">
+        <v>0</v>
+      </c>
       <c r="M18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+        <v>131</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="30">
+        <v>2</v>
+      </c>
+      <c r="P18" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H18:I18"/>
@@ -4063,7 +4065,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:I17"/>
@@ -4072,18 +4073,18 @@
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4092,6 +4093,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4235,22 +4251,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4266,21 +4284,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>